--- a/quadratic-core/test-files/simple.xlsx
+++ b/quadratic-core/test-files/simple.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidfig/Programming/quadratic/quadratic-core/test-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4ED7A3-899A-B840-BC82-92E6DBAE5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFED2771-27D3-4C42-9955-E6A665FC3D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{E509A5DF-87C7-884F-997C-087AF0B5DC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A96BF6-53C8-274A-A3AF-D8DAF92E1538}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -421,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -431,8 +453,12 @@
       <c r="C2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:D6">C1:C5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -442,8 +468,11 @@
       <c r="C3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -453,39 +482,48 @@
       <c r="C4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>6</v>
       </c>
       <c r="C5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>7</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
